--- a/biology/Médecine/Follicule_thyroïdien/Follicule_thyroïdien.xlsx
+++ b/biology/Médecine/Follicule_thyroïdien/Follicule_thyroïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Follicule_thyro%C3%AFdien</t>
+          <t>Follicule_thyroïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le follicule thyroïdien (ou vésicule thyroïdienne) est l'unité morpho-fonctionnelle de la glande thyroïde. Le follicule est composé d'un épithélium unistratifié de cellules folliculaires, produisant les hormones thyroïdiennes, disposées autour d'une lumière centrale contenant la colloïde : cette dernière est principalement constituée du précurseur des hormones thyroïdiennes, la thyroglobuline. Le follicule thyroïdien est un véritable piège à iode (ion iodure), élément rare à la surface de la terre, et indispensable au fonctionnement de l'organisme ; l'iode sera ainsi capté et stocké dans le colloïde. La biosynthèse des hormones thyroïdiennes thyroxine et triiodothyronine pourra alors se dérouler, l'iode venant se coupler à la thyroglobuline.
 Le follicule thyroïdien, en dehors d'une majorité de cellules folliculaires, contient 1 à 2 % de cellules dites parafolliculaires (ou cellules C), produisant la calcitonine. Elles n'ont cependant jamais de contact avec la colloïde.
